--- a/davkovani.xlsx
+++ b/davkovani.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
   </bookViews>
   <sheets>
-    <sheet name="výpočty" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="APW3" sheetId="3" r:id="rId1"/>
+    <sheet name="APW4" sheetId="4" r:id="rId2"/>
+    <sheet name="RO" sheetId="5" r:id="rId3"/>
+    <sheet name="ionexy" sheetId="7" r:id="rId4"/>
+    <sheet name="chemikálie" sheetId="8" r:id="rId5"/>
+    <sheet name="ostatní" sheetId="6" r:id="rId6"/>
+    <sheet name="výpočty" sheetId="1" r:id="rId7"/>
+    <sheet name="úpravy" sheetId="2" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="NaN">"-"</definedName>
     <definedName name="null">""</definedName>
   </definedNames>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -25,6 +30,2146 @@
     <author>Autor</author>
   </authors>
   <commentList>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+objem vzorku ze spodního proudu hydrocyklonu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+koncentrace síranu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+doba plnění nádoby o objemu V</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+relativní molekulová hmotnost síranu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+relativní molekulová hmotnost železa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+hustota síranu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+objem odpovídající rozdílu hladin v dávkovacím válci </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Δ</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>h = 1 cm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+průtok surové vody (součet průtoku na oba čiřiče APW3)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+horní hladina v dávkovacím válci</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+hmotnost prázdného odměrného válce</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+dolní hladina v dávkovacím válci</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+celková hmotnost, tj. hmotnost válce naplněného vzorkem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+čas za který došlo k úbytku síranu mezi horní a spodní hladinou v dávkovacím válci</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+objem vzorku</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+předpokládaný průměrný průtok surové vody Actiflo čiřičem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+doba plnění odměrného válce vzorkem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+koncentrace síranu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+relativní molekulová hmotnost síranu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+objem vzorku</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+relativní molekulová hmotnost železa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+objem odsazeného mikropísku</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+hustota síranu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+předpokládaný průměrný průtok surové vody Actiflo čiřičem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+požadovaná dávka</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+doba plnění odměrného válce vzorkem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+koncentrace písku v systému Actiflo aktuálně stanovená</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+koncentrace písku požadovaná v systému Actiflo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+předpokládaný průměrný průtok surové vody Actiflo čiřičem</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+objem vzorku ze spodního proudu hydrocyklonu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+koncentrace síranu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+doba plnění nádoby o objemu V</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+relativní molekulová hmotnost síranu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+relativní molekulová hmotnost železa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+hustota síranu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+objem odpovídající rozdílu hladin v dávkovacím válci </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Δ</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>h = 1 cm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+průtok surové vody (součet průtoku na oba čiřiče APW3)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+horní hladina v dávkovacím válci</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+hmotnost prázdného odměrného válce</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+dolní hladina v dávkovacím válci</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+celková hmotnost, tj. hmotnost válce naplněného vzorkem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+čas za který došlo k úbytku síranu mezi horní a spodní hladinou v dávkovacím válci</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+objem vzorku</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+předpokládaný průměrný průtok surové vody Actiflo čiřičem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+doba plnění odměrného válce vzorkem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+koncentrace síranu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+relativní molekulová hmotnost síranu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+objem vzorku</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+relativní molekulová hmotnost železa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+objem odsazeného mikropísku</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+hustota síranu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+předpokládaný průměrný průtok surové vody Actiflo čiřičem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+požadovaná dávka</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+doba plnění odměrného válce vzorkem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+koncentrace písku v systému Actiflo aktuálně stanovená</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+koncentrace písku požadovaná v systému Actiflo</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+předpokládaný průměrný průtok surové vody Actiflo čiřičem</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+hustota biocidu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+průtok FV</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+objem biocidu vydávkovaného do odměrného válce</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+doba plnění nádoby o objemu V</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+hustota antiscalantu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+celkový průtok vody na RO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+objem biocidu vydávkovaného do odměrného válce</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+doba plnění nádoby o objemu V</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+pozn.: pokud je koncentrace c0 jiná než jaká vznikne přípravou nového roztoku, vzniká při výpočtu chyba, která je tím větší, čím větší je zbytkový objem V0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+průměr ŘN TNF</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+Rel. molekulová hmotnost Na3PO4.12H2O</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+rel. molekulová hmotnost P2O5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+hmotnost fosfátu (Na3PO4.12H2O) použitého na přípravu roztoku (na 1 ŘN)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+hmotnost fosfátu (Na3PO4.12H2O) použitého na přípravu roztoku</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+výška hladiny v dané ŘN po dokončení přípravy roztoku</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+celkový objem doplněný do ŘN při přípravě roztoku</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+výška hladiny v dané ŘN před zahájením přípravy nového roztoku</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+původní koncentrace P2O5 v dané ŘN (v objemu o výšce v</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="subscript"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+doba plnění nádoby o objemu V</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+hm. zlomek obsahu P2O5 v Na3PO4.12H2O</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+koncentrace P2O5 v objemu daném rozdílem hladin v - v</t>
+        </r>
+        <r>
+          <rPr>
+            <vertAlign val="subscript"/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+koncentrace P2O5 v ŘN po přípravě nového roztoku</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
     <comment ref="B5" authorId="0">
       <text>
         <r>
@@ -129,58 +2274,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="R6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-hustota dávkovaného roztoku POF</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-hustota dávkovaného roztoku NaOH</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0">
       <text>
         <r>
@@ -285,29 +2378,133 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-objem roztoku POF který odpovídá úbytku hladiny v zahlcovacím válci </t>
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+objem biocidu vydávkovaného do odměrného válce</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+relativní molekulová hmotnost železa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+doba plnění nádoby o objemu V</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+hustota síranu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+objem odpovídající rozdílu hladin v dávkovacím válci </t>
         </r>
         <r>
           <rPr>
@@ -327,37 +2524,349 @@
             <family val="2"/>
             <charset val="238"/>
           </rPr>
-          <t>h = 1cm</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-koncentrace dávkovaného roztoku NaOH</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0">
+          <t>h = 1 cm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+průtok surové vody (součet průtoku na oba čiřiče APW3)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+horní hladina v dávkovacím válci</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+hmotnost prázdného odměrného válce</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+dolní hladina v dávkovacím válci</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+hustota antiscalantu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+hmotnost prázdného odměrného válce</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+celková hmotnost, tj. hmotnost válce naplněného vzorkem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+čas za který došlo k úbytku síranu mezi horní a spodní hladinou v dávkovacím válci</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+celková hmotnost, tj. hmotnost válce naplněného vzorkem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+objem vzorku</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+celkový průtok vody na RO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+objem vzorku</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+předpokládaný průměrný průtok surové vody Actiflo čiřičem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -383,7 +2892,215 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0">
+    <comment ref="F17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+předpokládaný průměrný průtok surové vody Actiflo čiřičem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+doba plnění odměrného válce vzorkem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+doba plnění nádoby o objemu V</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+doba plnění odměrného válce vzorkem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+koncentrace síranu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+hmotnost prázdného odměrného válce</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+relativní molekulová hmotnost síranu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J22" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+celková hmotnost, tj. hmotnost válce naplněného vzorkem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -409,85 +3126,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-koncentrace dávkovaného roztoku POF</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-průtok SV na čiřič, pro který se dávka POFu měří</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-doba plnění nádoby o objemu V</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N9" authorId="0">
+    <comment ref="J23" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="238"/>
+          </rPr>
+          <t xml:space="preserve">
+objem vzorku</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -513,1089 +3178,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-průtok SV na čiřič, pro který se dávka POFu měří</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-objem vydávkovaného vzorku za čas t</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-objem odpovídající rozdílu hladin v dávkovacím válci </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Δ</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>h = 1 cm</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-horní hladina ve vyrovnávacím válci</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-čas odběru vzorku o objemu V</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-průtok surové vody (součet průtoku na oba čiřiče APW3)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-spodní hladina ve vyrovnávacím válci</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-horní hladina v dávkovacím válci</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-čas poklesu hladiny ve vyrovnávacím válci</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-hmotnost prázdného odměrného válce</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-dolní hladina v dávkovacím válci</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-hustota antiscalantu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-hmotnost prázdného odměrného válce</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-celková hmotnost, tj. hmotnost válce naplněného vzorkem</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-čas za který došlo k úbytku síranu mezi horní a spodní hladinou v dávkovacím válci</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-celková hmotnost, tj. hmotnost válce naplněného vzorkem</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-objem vzorku</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-celkový průtok vody na RO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-objem vzorku</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-předpokládaný průměrný průtok surové vody Actiflo čiřičem</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-hustota dávkovaného roztoku NaOH</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-objem biocidu vydávkovaného do odměrného válce</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-předpokládaný průměrný průtok surové vody Actiflo čiřičem</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-doba plnění odměrného válce vzorkem</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-koncentrace dávkovaného roztoku NaOH</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-doba plnění nádoby o objemu V</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-doba plnění odměrného válce vzorkem</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-maximální výkon dávkovacího čerpadla POF</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-maximální průtok SV přiřazeny maximálnímu výkonu dávk. čerpadla NaOH</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-konstanta úměry mezi max. zdvihem a max. výkonem SV, viz MPP</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="V19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-požadovaná dávka POFu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-koncentrace síranu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-hustota dávkovaného roztoku POF</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-hmotnost prázdného odměrného válce</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-relativní molekulová hmotnost síranu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-koncentrace dávkovaného roztoku POF</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-celková hmotnost, tj. hmotnost válce naplněného vzorkem</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-relativní molekulová hmotnost železa</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-požadovaná dávka POFu</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-objem vzorku</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">
-hustota síranu</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F24" authorId="0">
       <text>
         <r>
@@ -1614,7 +3196,8 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="238"/>
           </rPr>
           <t xml:space="preserve">
 objem vzorku</t>
@@ -1860,7 +3443,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="85">
   <si>
     <t>ρ</t>
   </si>
@@ -2482,14 +4065,137 @@
     <t>z</t>
   </si>
   <si>
-    <t>POF - ověření dávky</t>
-  </si>
-  <si>
-    <t>POF - nastavení zdvihu</t>
-  </si>
-  <si>
-    <r>
-      <t>(Q</t>
+    <t>přidat reset ke všem měřením</t>
+  </si>
+  <si>
+    <t>ověření POF na 2 des místa!</t>
+  </si>
+  <si>
+    <t>měření konc P2O5 dle pH</t>
+  </si>
+  <si>
+    <t>pH dle konc. NH3</t>
+  </si>
+  <si>
+    <t>APW4 - síran</t>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.h</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>g.dm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>koncentrace P2O5 v ŘN</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>pH demivody</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
     </r>
     <r>
       <rPr>
@@ -2501,17 +4207,12 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>POF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
     </r>
     <r>
       <rPr>
@@ -2523,51 +4224,12 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>max</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>dm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.h</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>k</t>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(M</t>
     </r>
     <r>
       <rPr>
@@ -2579,21 +4241,17 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>APW3 - POF</t>
-  </si>
-  <si>
-    <t>alkalizace - ověření dávky</t>
-  </si>
-  <si>
-    <t>alkalizace - nastavení dávky</t>
-  </si>
-  <si>
-    <r>
-      <t>(Q</t>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -2605,34 +4263,12 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>SV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Q</t>
+      <t>P2O5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
     </r>
     <r>
       <rPr>
@@ -2645,12 +4281,54 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>max</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ml.h</t>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TNF</t>
+    </r>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <r>
+      <t>dm</t>
     </r>
     <r>
       <rPr>
@@ -2663,22 +4341,58 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-1</t>
-    </r>
-  </si>
-  <si>
-    <t>APW3 - alkalizace</t>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P2O5</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2738,7 +4452,8 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
@@ -2751,13 +4466,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -2806,13 +4514,67 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2842,7 +4604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2898,12 +4660,92 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2916,7 +4758,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv sady Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
   <a:themeElements>
     <a:clrScheme name="Kancelář">
       <a:dk1>
@@ -2990,6 +4832,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3024,6 +4867,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kancelář">
@@ -3199,14 +5043,1645 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:X36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <f>(2*36)/10</f>
+        <v>7.2</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="3">
+        <v>41</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3">
+        <v>399.88</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="6">
+        <f>B4*(B5/B6)</f>
+        <v>2.4</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="3">
+        <v>55.85</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="3">
+        <v>186</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3">
+        <v>85</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="15">
+        <f>3.6*(2.65/1.65)</f>
+        <v>5.7818181818181822</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="3">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>209</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1409</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3">
+        <v>42.4</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3">
+        <v>950</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6">
+        <f>(F4*F9*(F11-F12)*F8*F5*F7)/(F6*F10*F13)</f>
+        <v>31.917529476378988</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="3">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>3.82</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="10">
+        <f>(B11*(B13-B12-B14))/(B15*B16)</f>
+        <v>6.3065207044264637</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="E18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="E19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="3">
+        <v>41</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="12">
+        <f>(3.6*1.4)/1000000</f>
+        <v>5.04E-6</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="3">
+        <v>399.88</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3">
+        <v>950</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="3">
+        <v>55.85</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3">
+        <v>150</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="3">
+        <v>80</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="14">
+        <v>20</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="6">
+        <f>(F18*F20*F23)/(F22*F21*F19)</f>
+        <v>0.11642101738832965</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="10">
+        <f>(B20*POWER(B21,2)*B22)/(B23*B24)</f>
+        <v>2.6651953125000003</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="6">
+        <f>F24*100/(0.4*85)*100</f>
+        <v>34.241475702449897</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3">
+        <f>1.5*7.5</f>
+        <v>11.25</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="14">
+        <v>2</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="14">
+        <v>5</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="14">
+        <v>60</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="6">
+        <f>(B30-B29)*B31</f>
+        <v>180</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="6">
+        <f>B32/B28</f>
+        <v>16</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21">
+        <f>(2*36)/10</f>
+        <v>7.2</v>
+      </c>
+      <c r="G4" s="21" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="21">
+        <v>41</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>35</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="21">
+        <v>399.88</v>
+      </c>
+      <c r="G6" s="21" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="6">
+        <f>B4*(B5/B6)</f>
+        <v>1.0285714285714285</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="21">
+        <v>55.85</v>
+      </c>
+      <c r="G7" s="21" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="E9" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="21">
+        <v>186</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="E10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="21">
+        <v>90</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="33">
+        <f>2*3.6*(2.65/1.65)</f>
+        <v>11.563636363636364</v>
+      </c>
+      <c r="C11" s="32" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="21">
+        <v>100</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32">
+        <v>209</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="21">
+        <v>90</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="32">
+        <v>1409</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="21">
+        <v>46.2</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="32">
+        <v>950</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="27">
+        <f>(F4*F9*(F11-F12)*F8*F5*F7)/(F6*F10*F13)</f>
+        <v>27.664929348934553</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="32">
+        <v>360</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="32">
+        <v>3.82</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="35">
+        <f>(B11*(B13-B12-B14))/(B15*B16)</f>
+        <v>2.1021735681421547</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="E18" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="25">
+        <f>1/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="G18" s="21" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="E19" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="21">
+        <v>41</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="36">
+        <f>2*(3.6*1.4)/1000000</f>
+        <v>1.008E-5</v>
+      </c>
+      <c r="C20" s="32" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="21">
+        <v>399.88</v>
+      </c>
+      <c r="G20" s="21" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="32">
+        <v>950</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="21">
+        <v>55.85</v>
+      </c>
+      <c r="G21" s="21" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="32">
+        <v>250</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="32">
+        <v>300</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="26">
+        <v>20</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="32">
+        <v>2.7080000000000002</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="27">
+        <f>(F18*F20*F23)/(F22*F21*F19)</f>
+        <v>0.11642101738832965</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="35">
+        <f>(B20*POWER(B21,2)*B22)/(B23*B24)</f>
+        <v>2.7994830132939437</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="27">
+        <f>F24*100/(0.4*85)*100</f>
+        <v>34.241475702449897</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="39">
+        <f>1.5*7.5</f>
+        <v>11.25</v>
+      </c>
+      <c r="C28" s="39" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="40">
+        <v>2</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="40">
+        <v>5</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="40">
+        <v>320</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="43">
+        <f>(B30-B29)*B31</f>
+        <v>960</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="43">
+        <f>B32/B28</f>
+        <v>85.333333333333329</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3600</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="3">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="10">
+        <f>(B4*B5*B7)/(B6*B8)</f>
+        <v>216.14906832298135</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3600</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="3">
+        <v>70</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3">
+        <v>23.4</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="10">
+        <f>(B13*B14*B16)/(B15*B17)</f>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="12">
+        <v>100</v>
+      </c>
+      <c r="C22" s="3" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="14">
+        <v>5.3650000000000002</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="14">
+        <v>9.73</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="15">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="11">
+        <f>B22*((1-(B23/B24))/B25)</f>
+        <v>44.861253854059612</v>
+      </c>
+      <c r="C26" s="13" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="E1" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21">
+        <v>144</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="26">
+        <v>380.13200000000001</v>
+      </c>
+      <c r="C4" s="21" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="26">
+        <v>141.94</v>
+      </c>
+      <c r="C5" s="21" t="str">
+        <f>NaN</f>
+        <v>-</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="21">
+        <v>12.5</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="21">
+        <v>100</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="21">
+        <v>10</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="21">
+        <v>36</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="21">
+        <v>3</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="21">
+        <v>15</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="24">
+        <f>B5/(2*B4)</f>
+        <v>0.18669830479938548</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="47">
+        <f>(PI()*POWER((B3/2),2)*B7)/1000</f>
+        <v>1628.6016316209486</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="47">
+        <f>(PI()*POWER((B3/2),2)*B8)/1000</f>
+        <v>586.29658738354146</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="27">
+        <f>B6/(B11-B12)</f>
+        <v>1.199265039453542E-2</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="27">
+        <f>B2*(B7/B9)</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="27">
+        <f>F2*(F7/F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="11" style="1" bestFit="1" customWidth="1"/>
@@ -3218,7 +6693,7 @@
     <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
@@ -3231,14 +6706,8 @@
       <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="2:24">
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
@@ -3251,14 +6720,8 @@
       <c r="N4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" ht="17.25">
+    </row>
+    <row r="5" spans="2:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
@@ -3299,28 +6762,8 @@
         <f>NaN</f>
         <v>-</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S5" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="T5" s="3" t="str">
-        <f>NaN</f>
-        <v>-</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="W5" s="3">
-        <v>36</v>
-      </c>
-      <c r="X5" s="3" t="str">
-        <f>NaN</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" ht="17.25">
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
@@ -3358,26 +6801,8 @@
       <c r="P6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V6" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>1.5249999999999999</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" ht="18">
+    </row>
+    <row r="7" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>56</v>
       </c>
@@ -3415,26 +6840,8 @@
         <f>NaN</f>
         <v>-</v>
       </c>
-      <c r="R7" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="S7" s="3">
-        <v>58.9</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="W7" s="3">
-        <v>50</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" ht="18">
+    </row>
+    <row r="8" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -3474,31 +6881,13 @@
         <f>NaN</f>
         <v>-</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W8" s="3">
-        <v>80</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" ht="18">
+    </row>
+    <row r="9" spans="2:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3">
-        <v>95.5</v>
+        <v>6.9</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>15</v>
@@ -3512,32 +6901,14 @@
       <c r="P9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" s="3">
-        <v>70</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="W9" s="3">
-        <v>20</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" ht="18">
+    </row>
+    <row r="10" spans="2:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="10">
         <f>(C5*C6*C8)/(C7*C9)</f>
-        <v>15.617053103964098</v>
+        <v>216.14906832298135</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>21</v>
@@ -3552,26 +6923,8 @@
       <c r="P10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="3">
-        <v>20</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W10" s="3">
-        <v>45.4</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" ht="18">
+    </row>
+    <row r="11" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="F11" s="8" t="s">
         <v>36</v>
       </c>
@@ -3587,27 +6940,8 @@
       <c r="P11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="V11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="W11" s="6">
-        <f>(W5*W6*W9*W7)/(W8*W10)</f>
-        <v>15.115638766519824</v>
-      </c>
-      <c r="X11" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" ht="18">
+    </row>
+    <row r="12" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="F12" s="1" t="s">
@@ -3625,17 +6959,8 @@
       <c r="P12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S12" s="3">
-        <v>30.7</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" ht="18">
+    </row>
+    <row r="13" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
@@ -3666,18 +6991,8 @@
       <c r="P13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="S13" s="10">
-        <f>(S5*(S10-S11)*S7*S6*S8)/(S9*S12)</f>
-        <v>0.39467659376454167</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" ht="18">
+    </row>
+    <row r="14" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>0</v>
       </c>
@@ -3710,11 +7025,8 @@
       <c r="P14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V14" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" ht="18">
+    </row>
+    <row r="15" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
@@ -3749,23 +7061,13 @@
       <c r="P15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="W15" s="3">
-        <v>100</v>
-      </c>
-      <c r="X15" s="3" t="str">
-        <f>NaN</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" ht="18">
+    </row>
+    <row r="16" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="3">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>20</v>
@@ -3774,7 +7076,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="3">
-        <v>1030</v>
+        <v>950</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>18</v>
@@ -3784,20 +7086,8 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="R16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="V16" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="W16" s="3">
-        <v>1.5249999999999999</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="2:24" ht="18">
+    </row>
+    <row r="17" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
@@ -3821,32 +7111,13 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="R17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="T17" s="3" t="str">
-        <f>NaN</f>
-        <v>-</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="W17" s="3">
-        <v>50</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" ht="18">
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="3">
-        <v>151.6</v>
+        <v>23.4</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>15</v>
@@ -3863,32 +7134,14 @@
       <c r="N18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="S18" s="3">
-        <v>55</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="W18" s="3">
-        <v>240</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" ht="18">
+    </row>
+    <row r="19" spans="2:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="10">
         <f>(C14*C15*C17)/(C16*C18)</f>
-        <v>7.3878627968337733</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>21</v>
@@ -3898,7 +7151,7 @@
       </c>
       <c r="G19" s="10">
         <f>(G13*(G15-G14-G16))/(G17*G18)</f>
-        <v>4.2884340790099955</v>
+        <v>6.3065207044264637</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>30</v>
@@ -3914,27 +7167,8 @@
         <f>NaN</f>
         <v>-</v>
       </c>
-      <c r="R19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="S19" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="T19" s="3" t="str">
-        <f>NaN</f>
-        <v>-</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="W19" s="3">
-        <v>8</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" ht="18">
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J20" s="1" t="s">
         <v>32</v>
       </c>
@@ -3947,27 +7181,8 @@
       <c r="P20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="R20" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="V20" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="W20" s="19">
-        <f>(W15*W19*W18)/(W16*W17)</f>
-        <v>2518.032786885246</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" ht="18">
+    </row>
+    <row r="21" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="J21" s="2" t="s">
         <v>11</v>
       </c>
@@ -3983,17 +7198,8 @@
         <f>NaN</f>
         <v>-</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" ht="18">
+    </row>
+    <row r="22" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>4</v>
       </c>
@@ -4015,17 +7221,8 @@
         <f>NaN</f>
         <v>-</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" ht="17.25">
+    </row>
+    <row r="23" spans="2:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>1</v>
       </c>
@@ -4061,23 +7258,13 @@
       <c r="P23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R23" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="S23" s="10">
-        <f>(S17*S22)/(S21*S20*S19*S18)</f>
-        <v>54.545454545454547</v>
-      </c>
-      <c r="T23" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="2:24" ht="18">
+    </row>
+    <row r="24" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="14">
-        <v>2.0539999999999998</v>
+        <v>5.3650000000000002</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>15</v>
@@ -4086,7 +7273,7 @@
         <v>35</v>
       </c>
       <c r="G24" s="3">
-        <v>1030</v>
+        <v>950</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>18</v>
@@ -4106,12 +7293,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:24" ht="17.25">
+    <row r="25" spans="2:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="14">
-        <v>17.074000000000002</v>
+        <v>9.73</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>15</v>
@@ -4120,7 +7307,7 @@
         <v>10</v>
       </c>
       <c r="G25" s="3">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>18</v>
@@ -4141,12 +7328,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:24" ht="18">
+    <row r="26" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="15">
-        <v>0.39200000000000002</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>33</v>
@@ -4171,13 +7358,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="2:24">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="11">
         <f>C23*((1-(C24/C25))/C26)</f>
-        <v>224.41329817624603</v>
+        <v>44.861253854059612</v>
       </c>
       <c r="D27" s="13" t="str">
         <f>NaN</f>
@@ -4187,19 +7374,19 @@
         <v>13</v>
       </c>
       <c r="G27" s="3">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:24" ht="17.25">
+    <row r="28" spans="2:16" ht="17.25" x14ac:dyDescent="0.25">
       <c r="F28" s="13" t="s">
         <v>28</v>
       </c>
       <c r="G28" s="10">
         <f>(G23*POWER(G24,2)*G25)/(G26*G27)</f>
-        <v>3.7522357894736844</v>
+        <v>2.253810810810811</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>30</v>
@@ -4208,12 +7395,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:24">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F30" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="2:24">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F31" s="3" t="s">
         <v>1</v>
       </c>
@@ -4226,58 +7413,58 @@
         <v>-</v>
       </c>
     </row>
-    <row r="32" spans="2:24" ht="18">
+    <row r="32" spans="2:16" ht="18" x14ac:dyDescent="0.25">
       <c r="F32" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G32" s="14">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="6:8" ht="18">
+    <row r="33" spans="6:8" ht="18" x14ac:dyDescent="0.25">
       <c r="F33" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G33" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="6:8" ht="18">
+    <row r="34" spans="6:8" ht="18" x14ac:dyDescent="0.25">
       <c r="F34" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G34" s="14">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="6:8" ht="18">
+    <row r="35" spans="6:8" ht="18" x14ac:dyDescent="0.25">
       <c r="F35" s="13" t="s">
         <v>40</v>
       </c>
       <c r="G35" s="6">
         <f>(G33-G32)*G34</f>
-        <v>262.5</v>
+        <v>180</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="6:8">
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F36" s="13" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="6">
         <f>G35/G31</f>
-        <v>23.333333333333332</v>
+        <v>16</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>33</v>
@@ -4290,39 +7477,47 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>